--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerate/DatabaseGenerate/Resource/AncientBooks/Article.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerate/DatabaseGenerate/Resource/AncientBooks/Article.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9204"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="正史類" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,20 @@
     <sheet name="紀事本末類" sheetId="4" r:id="rId4"/>
     <sheet name="載記類" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -113,7 +126,7 @@
     <t>前言</t>
   </si>
   <si>
-    <t>1700180914&amp;1700180915&amp;1700180916&amp;1700180917&amp;1700180918</t>
+    <t>1600180914&amp;1600180915&amp;1600180916&amp;1600180917&amp;1600180918</t>
   </si>
   <si>
     <t>詳校官&amp;覆勘&amp;覆校官&amp;校對官&amp;謄録</t>
@@ -131,7 +144,7 @@
     <t>御製文</t>
   </si>
   <si>
-    <t>1700180350&amp;1700180053&amp;1700181123&amp;1700181124&amp;1700181125</t>
+    <t>1600180350&amp;1600180053&amp;1600181123&amp;1600181124&amp;1600181125</t>
   </si>
   <si>
     <t>進表</t>
@@ -140,7 +153,7 @@
     <t>職名</t>
   </si>
   <si>
-    <t>1000180001&amp;1200180001&amp;1200180002</t>
+    <t>1000180001&amp;1100180001&amp;1100180002</t>
   </si>
   <si>
     <t>集解&amp;索隠&amp;正義</t>
@@ -197,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1145,18 +1158,18 @@
   <dimension ref="A1:K187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.775" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="6" width="11.7777777777778" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="2" max="6" width="11.775" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.8916666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.6666666666667" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.77777777777778" style="1"/>
+    <col min="11" max="11" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.775" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -1326,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>1700180056</v>
+        <v>1600180056</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>34</v>
@@ -1353,7 +1366,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>1700180056</v>
+        <v>1600180056</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>35</v>
@@ -1380,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="1">
-        <v>1700180056</v>
+        <v>1600180056</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>36</v>
@@ -1434,7 +1447,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="1">
-        <v>1700180350</v>
+        <v>1600180350</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>39</v>
@@ -1491,7 +1504,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="1">
-        <v>1700180868</v>
+        <v>1600180868</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>43</v>
@@ -1542,7 +1555,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="1">
-        <v>1700180868</v>
+        <v>1600180868</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>44</v>
@@ -4299,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="G145" s="1">
-        <v>1200180001</v>
+        <v>1100180001</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>51</v>
@@ -4326,7 +4339,7 @@
         <v>2</v>
       </c>
       <c r="G146" s="1">
-        <v>1200180001</v>
+        <v>1100180001</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>52</v>
@@ -4356,7 +4369,7 @@
         <v>3</v>
       </c>
       <c r="G147" s="1">
-        <v>1200180002</v>
+        <v>1100180002</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>54</v>
@@ -4386,7 +4399,7 @@
         <v>4</v>
       </c>
       <c r="G148" s="1">
-        <v>1700180868</v>
+        <v>1600180868</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>56</v>
@@ -4409,9 +4422,9 @@
       <selection activeCell="B1" sqref="B1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.6" spans="2:11">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="2:11">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4443,7 +4456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.6" spans="2:11">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="2:11">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4475,7 +4488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.6" spans="2:11">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="2:11">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -4522,9 +4535,9 @@
       <selection activeCell="B1" sqref="B1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" ht="15.6" spans="2:11">
+    <row r="1" ht="14.25" spans="2:11">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4556,7 +4569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:11">
+    <row r="2" ht="14.25" spans="2:11">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4588,7 +4601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:11">
+    <row r="3" ht="14.25" spans="2:11">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -4635,9 +4648,9 @@
       <selection activeCell="B1" sqref="B1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" ht="15.6" spans="2:11">
+    <row r="1" ht="14.25" spans="2:11">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4669,7 +4682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:11">
+    <row r="2" ht="14.25" spans="2:11">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4701,7 +4714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:11">
+    <row r="3" ht="14.25" spans="2:11">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -4748,9 +4761,9 @@
       <selection activeCell="B1" sqref="B1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" ht="15.6" spans="2:11">
+    <row r="1" ht="14.25" spans="2:11">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4782,7 +4795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="2:11">
+    <row r="2" ht="14.25" spans="2:11">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4814,7 +4827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="2:11">
+    <row r="3" ht="14.25" spans="2:11">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
